--- a/設計/受託処理フロー制御.xlsx
+++ b/設計/受託処理フロー制御.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.183.3.12\gabu\06_医薬\10_千年カルテプロジェクト\02_MIS\共通\20_デリバリ\23_詳細設計\14_DBの受託と認定領域の分割対応（本対応）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\es44.fs-bxo.nttdata.co.jp\gabu\06_医薬\10_千年カルテプロジェクト\02_MIS\共通\20_デリバリ\23_詳細設計\14_DBの受託と認定領域の分割対応（本対応）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3304,10 +3304,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・上書き取込による削除候補患者数を集計する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>処理実行抑止/解除</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -3726,6 +3722,32 @@
     </rPh>
     <rPh sb="66" eb="68">
       <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・オプトアウト削除実績患者数を集計する。
+・上書き取込による削除実績患者数を集計する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・MML個別取込登録実績患者数を集計する。
+・MML個別取込後_未通知およびオプトアウト対象患者数を集計する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・MML個別取込_認定領域への取込患者数を集計する。
+・MML個別取込前_未通知およびオプトアウト対象患者数を集計する。
+・オプトアウト削除対象患者数を集計する。
+・上書き取込による削除対象患者数を集計する。</t>
+    <rPh sb="21" eb="23">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>タイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3737,24 +3759,13 @@
     <rPh sb="13" eb="15">
       <t>シュウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・オプトアウト削除実績患者数を集計する。
-・上書き取込による削除実績患者数を集計する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・MML個別取込登録実績患者数を集計する。
-・MML個別取込後_未通知およびオプトアウト対象患者数を集計する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・MML個別取込_認定領域への取込患者数を集計する。
-・MML個別取込前_未通知およびオプトアウト対象患者数を集計する。</t>
-    <rPh sb="21" eb="23">
-      <t>シュウケイ</t>
-    </rPh>
+    <rPh sb="72" eb="74">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・上書き取込による削除対象（候補）患者数を集計する。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4079,23 +4090,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8219,7 +8230,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="67" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8232,10 +8243,10 @@
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="P14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8284,7 +8295,7 @@
         <v>163</v>
       </c>
       <c r="U3" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="300.75" x14ac:dyDescent="0.4">
@@ -8501,7 +8512,7 @@
       </c>
       <c r="S7" s="27"/>
       <c r="T7" s="15" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>144</v>
@@ -8944,11 +8955,11 @@
       </c>
       <c r="S15" s="25"/>
       <c r="T15" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:21" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.4">
       <c r="B16" s="31"/>
       <c r="C16" s="6" t="s">
         <v>9</v>
@@ -9000,7 +9011,7 @@
       </c>
       <c r="S16" s="26"/>
       <c r="T16" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="U16" s="3"/>
     </row>
@@ -9110,7 +9121,7 @@
       </c>
       <c r="S18" s="26"/>
       <c r="T18" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U18" s="3"/>
     </row>
@@ -9168,7 +9179,7 @@
         <v>143</v>
       </c>
       <c r="T19" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="U19" s="3"/>
     </row>
@@ -9336,7 +9347,7 @@
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="U22" s="15" t="s">
         <v>144</v>
@@ -10168,10 +10179,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -10179,7 +10190,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -10195,7 +10206,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -10219,7 +10230,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -10227,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -10240,7 +10251,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -10250,13 +10261,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E13" t="s">
         <v>42</v>
@@ -10267,10 +10278,10 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -10278,15 +10289,15 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -10310,7 +10321,7 @@
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -10318,7 +10329,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -10331,31 +10342,31 @@
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -10368,10 +10379,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -10379,7 +10390,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -10387,31 +10398,31 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -10424,10 +10435,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -10435,7 +10446,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -10443,7 +10454,7 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -11593,13 +11604,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>301</v>
       </c>
       <c r="E4" s="21" t="s">
@@ -11611,59 +11622,59 @@
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="21" t="s">
         <v>304</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="21" t="s">
         <v>306</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="63" x14ac:dyDescent="0.4">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="22" t="s">
         <v>308</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="21" t="s">
         <v>310</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="34"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="33" t="s">
         <v>301</v>
       </c>
       <c r="E9" s="21" t="s">
@@ -11672,36 +11683,36 @@
       <c r="F9" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="34"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="21" t="s">
         <v>304</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="34"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="21" t="s">
         <v>306</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="G11" s="37"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="34"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="23" t="s">
         <v>315</v>
       </c>
@@ -11717,11 +11728,11 @@
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="34"/>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="33" t="s">
         <v>301</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -11730,36 +11741,36 @@
       <c r="F13" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="37" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="34"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="21" t="s">
         <v>304</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="34"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="21" t="s">
         <v>306</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="35"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="23" t="s">
         <v>320</v>
       </c>
@@ -11777,13 +11788,13 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
         <v>301</v>
       </c>
       <c r="E17" s="21" t="s">
@@ -11797,35 +11808,35 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="37"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="21" t="s">
         <v>304</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G18" s="34"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="37"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="21" t="s">
         <v>306</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="2:7" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="37"/>
-      <c r="C20" s="33" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="34" t="s">
         <v>301</v>
       </c>
       <c r="E20" s="21" t="s">
@@ -11839,35 +11850,35 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B21" s="37"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="22" t="s">
         <v>331</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="2:7" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="B22" s="37"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="21" t="s">
         <v>310</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="G22" s="34"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B23" s="37"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="33" t="s">
         <v>301</v>
       </c>
       <c r="E23" s="21" t="s">
@@ -11876,34 +11887,44 @@
       <c r="F23" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="G23" s="38"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="21" t="s">
         <v>304</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="21" t="s">
         <v>306</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:G15"/>
     <mergeCell ref="B17:B25"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
@@ -11914,16 +11935,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="G23:G25"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
